--- a/ArgoBooks/Resources/SampleCompanyData.xlsx
+++ b/ArgoBooks/Resources/SampleCompanyData.xlsx
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>45250</v>
+        <v>67500</v>
       </c>
     </row>
     <row r="3">
@@ -631,7 +631,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>38500</v>
+        <v>52800</v>
       </c>
     </row>
     <row r="4">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>28750</v>
+        <v>38750</v>
       </c>
     </row>
     <row r="5">
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>52100</v>
+        <v>72100</v>
       </c>
     </row>
     <row r="6">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>3200</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="7">
@@ -886,7 +886,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>41800</v>
+        <v>58800</v>
       </c>
     </row>
     <row r="8">
@@ -951,7 +951,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>29400</v>
+        <v>41400</v>
       </c>
     </row>
     <row r="9">
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>22650</v>
+        <v>32650</v>
       </c>
     </row>
     <row r="10">
@@ -1081,7 +1081,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>35900</v>
+        <v>48900</v>
       </c>
     </row>
     <row r="11">
@@ -1141,7 +1141,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="12">
@@ -1206,7 +1206,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>31200</v>
+        <v>44200</v>
       </c>
     </row>
     <row r="13">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>48600</v>
+        <v>68600</v>
       </c>
     </row>
     <row r="14">
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>19800</v>
+        <v>29800</v>
       </c>
     </row>
     <row r="15">
@@ -1401,7 +1401,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>42300</v>
+        <v>56300</v>
       </c>
     </row>
     <row r="16">
@@ -1466,7 +1466,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>26100</v>
+        <v>36100</v>
       </c>
     </row>
   </sheetData>
@@ -1480,7 +1480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1538,12 +1538,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SAL-2024-001</t>
+          <t>SAL-2025-001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1579,12 +1579,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SAL-2024-002</t>
+          <t>SAL-2025-002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1620,12 +1620,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SAL-2024-003</t>
+          <t>SAL-2025-003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1635,17 +1635,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Dell UltraSharp U2722D Monitor</t>
+          <t>Dell Latitude 5540 Laptop</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>549</v>
+        <v>1299</v>
       </c>
       <c r="F4" t="n">
-        <v>45.29</v>
+        <v>107.17</v>
       </c>
       <c r="G4" t="n">
-        <v>594.29</v>
+        <v>1406.17</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1661,12 +1661,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SAL-2024-004</t>
+          <t>SAL-2025-004</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1702,36 +1702,36 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SAL-2024-005</t>
+          <t>SAL-2025-005</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CUS-004</t>
+          <t>CUS-001</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Dell OptiPlex 7010 Desktop</t>
+          <t>Dell UltraSharp U2722D Monitor</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>899</v>
+        <v>549</v>
       </c>
       <c r="F6" t="n">
-        <v>74.17</v>
+        <v>45.29</v>
       </c>
       <c r="G6" t="n">
-        <v>973.17</v>
+        <v>594.29</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>SO-10002</t>
+          <t>SO-10001</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1743,12 +1743,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SAL-2024-006</t>
+          <t>SAL-2025-006</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1784,12 +1784,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SAL-2024-007</t>
+          <t>SAL-2025-007</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1825,12 +1825,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SAL-2024-008</t>
+          <t>SAL-2025-008</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1840,17 +1840,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Dell P2422H Monitor</t>
+          <t>Dell OptiPlex 7010 Desktop</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>249</v>
+        <v>899</v>
       </c>
       <c r="F9" t="n">
-        <v>20.54</v>
+        <v>74.17</v>
       </c>
       <c r="G9" t="n">
-        <v>269.54</v>
+        <v>973.17</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1866,12 +1866,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SAL-2024-009</t>
+          <t>SAL-2025-009</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1881,17 +1881,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Dell P2422H Monitor</t>
+          <t>Dell OptiPlex 7010 Desktop</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>249</v>
+        <v>899</v>
       </c>
       <c r="F10" t="n">
-        <v>20.54</v>
+        <v>74.17</v>
       </c>
       <c r="G10" t="n">
-        <v>269.54</v>
+        <v>973.17</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1907,12 +1907,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SAL-2024-010</t>
+          <t>SAL-2025-010</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1948,36 +1948,36 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SAL-2024-011</t>
+          <t>SAL-2025-011</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CUS-006</t>
+          <t>CUS-004</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Lenovo ThinkPad T14</t>
+          <t>Dell P2422H Monitor</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1149</v>
+        <v>249</v>
       </c>
       <c r="F12" t="n">
-        <v>94.79000000000001</v>
+        <v>20.54</v>
       </c>
       <c r="G12" t="n">
-        <v>1243.79</v>
+        <v>269.54</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>SO-10003</t>
+          <t>SO-10002</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1989,32 +1989,32 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SAL-2024-012</t>
+          <t>SAL-2025-012</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CUS-006</t>
+          <t>CUS-002</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Lenovo ThinkPad T14</t>
+          <t>Monthly IT Support Contract</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1149</v>
+        <v>1200</v>
       </c>
       <c r="F13" t="n">
-        <v>94.79000000000001</v>
+        <v>99</v>
       </c>
       <c r="G13" t="n">
-        <v>1243.79</v>
+        <v>1299</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -2030,12 +2030,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SAL-2024-013</t>
+          <t>SAL-2025-013</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2025-02-18</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2045,21 +2045,21 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Cisco Meraki MX68 Firewall</t>
+          <t>Lenovo ThinkPad T14</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1495</v>
+        <v>1149</v>
       </c>
       <c r="F14" t="n">
-        <v>123.34</v>
+        <v>94.79000000000001</v>
       </c>
       <c r="G14" t="n">
-        <v>1618.34</v>
+        <v>1243.79</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>SO-10003</t>
+          <t>SO-10004</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -2071,32 +2071,32 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SAL-2024-014</t>
+          <t>SAL-2025-014</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024-11-22</t>
+          <t>2025-02-18</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CUS-011</t>
+          <t>CUS-006</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Dell Precision 3660 Workstation</t>
+          <t>Lenovo ThinkPad T14</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2499</v>
+        <v>1149</v>
       </c>
       <c r="F15" t="n">
-        <v>206.17</v>
+        <v>94.79000000000001</v>
       </c>
       <c r="G15" t="n">
-        <v>2705.17</v>
+        <v>1243.79</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -2112,32 +2112,32 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SAL-2024-015</t>
+          <t>SAL-2025-015</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2024-11-22</t>
+          <t>2025-02-18</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CUS-011</t>
+          <t>CUS-006</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Dell UltraSharp U2722D Monitor</t>
+          <t>Lenovo ThinkPad T14</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>549</v>
+        <v>1149</v>
       </c>
       <c r="F16" t="n">
-        <v>45.29</v>
+        <v>94.79000000000001</v>
       </c>
       <c r="G16" t="n">
-        <v>594.29</v>
+        <v>1243.79</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -2153,32 +2153,32 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SAL-2024-016</t>
+          <t>SAL-2025-016</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024-11-22</t>
+          <t>2025-02-18</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CUS-011</t>
+          <t>CUS-006</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Dell UltraSharp U2722D Monitor</t>
+          <t>Cisco Meraki MX68 Firewall</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>549</v>
+        <v>1895</v>
       </c>
       <c r="F17" t="n">
-        <v>45.29</v>
+        <v>156.34</v>
       </c>
       <c r="G17" t="n">
-        <v>594.29</v>
+        <v>2051.34</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -2194,32 +2194,32 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SAL-2024-017</t>
+          <t>SAL-2025-017</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024-12-02</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CUS-012</t>
+          <t>CUS-002</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Dell Latitude 7440 Laptop</t>
+          <t>Monthly IT Support Contract</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1699</v>
+        <v>1200</v>
       </c>
       <c r="F18" t="n">
-        <v>140.17</v>
+        <v>99</v>
       </c>
       <c r="G18" t="n">
-        <v>1839.17</v>
+        <v>1299</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -2235,36 +2235,36 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SAL-2024-018</t>
+          <t>SAL-2025-018</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2024-12-02</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CUS-012</t>
+          <t>CUS-003</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Dell Latitude 7440 Laptop</t>
+          <t>Dell Latitude 5540 Laptop</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1699</v>
+        <v>1299</v>
       </c>
       <c r="F19" t="n">
-        <v>140.17</v>
+        <v>107.17</v>
       </c>
       <c r="G19" t="n">
-        <v>1839.17</v>
+        <v>1406.17</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>SO-10005</t>
+          <t>SO-10006</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2276,36 +2276,36 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SAL-2024-019</t>
+          <t>SAL-2025-019</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2024-12-02</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CUS-012</t>
+          <t>CUS-003</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Cisco Catalyst 1000-24T Switch</t>
+          <t>Dell Latitude 5540 Laptop</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1895</v>
+        <v>1299</v>
       </c>
       <c r="F20" t="n">
-        <v>156.34</v>
+        <v>107.17</v>
       </c>
       <c r="G20" t="n">
-        <v>2051.34</v>
+        <v>1406.17</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>SO-10005</t>
+          <t>SO-10006</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2317,32 +2317,32 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SAL-2024-020</t>
+          <t>SAL-2025-020</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2024-12-07</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CUS-014</t>
+          <t>CUS-003</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Dell Precision 3660 Workstation</t>
+          <t>Dell P2422H Monitor</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2499</v>
+        <v>249</v>
       </c>
       <c r="F21" t="n">
-        <v>206.17</v>
+        <v>20.54</v>
       </c>
       <c r="G21" t="n">
-        <v>2705.17</v>
+        <v>269.54</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -2358,36 +2358,36 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SAL-2024-021</t>
+          <t>SAL-2025-021</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2024-12-07</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CUS-014</t>
+          <t>CUS-009</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Dell Precision 3660 Workstation</t>
+          <t>Dell OptiPlex 7010 Desktop</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2499</v>
+        <v>899</v>
       </c>
       <c r="F22" t="n">
-        <v>206.17</v>
+        <v>74.17</v>
       </c>
       <c r="G22" t="n">
-        <v>2705.17</v>
+        <v>973.17</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>SO-10006</t>
+          <t>SO-10007</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2399,32 +2399,32 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SAL-2024-022</t>
+          <t>SAL-2025-022</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024-11-12</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CUS-003</t>
+          <t>CUS-009</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Microsoft 365 Business Premium</t>
+          <t>Dell OptiPlex 7010 Desktop</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>264</v>
+        <v>899</v>
       </c>
       <c r="F23" t="n">
-        <v>21.78</v>
+        <v>74.17</v>
       </c>
       <c r="G23" t="n">
-        <v>285.78</v>
+        <v>973.17</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -2440,36 +2440,36 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SAL-2024-023</t>
+          <t>SAL-2025-023</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CUS-007</t>
+          <t>CUS-009</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Microsoft 365 Business Premium</t>
+          <t>Dell P2422H Monitor</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="F24" t="n">
-        <v>21.78</v>
+        <v>20.54</v>
       </c>
       <c r="G24" t="n">
-        <v>285.78</v>
+        <v>269.54</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>SO-10008</t>
+          <t>SO-10007</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2481,36 +2481,36 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SAL-2024-024</t>
+          <t>SAL-2025-024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2024-12-12</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CUS-001</t>
+          <t>CUS-002</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Microsoft 365 Business Premium</t>
+          <t>Monthly IT Support Contract</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>528</v>
+        <v>1200</v>
       </c>
       <c r="F25" t="n">
-        <v>43.56</v>
+        <v>99</v>
       </c>
       <c r="G25" t="n">
-        <v>571.5599999999999</v>
+        <v>1299</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>SO-10009</t>
+          <t>SO-10008</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2522,36 +2522,36 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SAL-2024-025</t>
+          <t>SAL-2025-025</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CUS-002</t>
+          <t>CUS-011</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Monthly IT Support Contract</t>
+          <t>Dell Precision 3660 Workstation</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>800</v>
+        <v>2899</v>
       </c>
       <c r="F26" t="n">
-        <v>66</v>
+        <v>239.17</v>
       </c>
       <c r="G26" t="n">
-        <v>866</v>
+        <v>3138.17</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>SO-10010</t>
+          <t>SO-10009</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2563,36 +2563,36 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SAL-2024-026</t>
+          <t>SAL-2025-026</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2024-12-02</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CUS-002</t>
+          <t>CUS-011</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Monthly IT Support Contract</t>
+          <t>Dell Precision 3660 Workstation</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>800</v>
+        <v>2899</v>
       </c>
       <c r="F27" t="n">
-        <v>66</v>
+        <v>239.17</v>
       </c>
       <c r="G27" t="n">
-        <v>866</v>
+        <v>3138.17</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>SO-10011</t>
+          <t>SO-10009</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2604,36 +2604,36 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SAL-2024-027</t>
+          <t>SAL-2025-027</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CUS-002</t>
+          <t>CUS-011</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Monthly IT Support Contract</t>
+          <t>Dell UltraSharp U2722D Monitor</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>800</v>
+        <v>549</v>
       </c>
       <c r="F28" t="n">
-        <v>66</v>
+        <v>45.29</v>
       </c>
       <c r="G28" t="n">
-        <v>866</v>
+        <v>594.29</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>SO-10012</t>
+          <t>SO-10009</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2645,36 +2645,36 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SAL-2024-028</t>
+          <t>SAL-2025-028</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2024-11-17</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CUS-009</t>
+          <t>CUS-011</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Network Assessment</t>
+          <t>Dell UltraSharp U2722D Monitor</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1500</v>
+        <v>549</v>
       </c>
       <c r="F29" t="n">
-        <v>123.75</v>
+        <v>45.29</v>
       </c>
       <c r="G29" t="n">
-        <v>1623.75</v>
+        <v>594.29</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>SO-10013</t>
+          <t>SO-10009</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2686,36 +2686,36 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SAL-2024-029</t>
+          <t>SAL-2025-029</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CUS-006</t>
+          <t>CUS-007</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Server Setup &amp; Configuration</t>
+          <t>Dell Latitude 5540 Laptop</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2400</v>
+        <v>1299</v>
       </c>
       <c r="F30" t="n">
-        <v>198</v>
+        <v>107.17</v>
       </c>
       <c r="G30" t="n">
-        <v>2598</v>
+        <v>1406.17</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>SO-10014</t>
+          <t>SO-10010</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2727,41 +2727,2091 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SAL-2024-030</t>
+          <t>SAL-2025-030</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2024-12-27</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>CUS-007</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Dell Latitude 5540 Laptop</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>1299</v>
+      </c>
+      <c r="F31" t="n">
+        <v>107.17</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1406.17</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>SO-10010</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>SAL-2025-031</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2025-05-02</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>CUS-002</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Monthly IT Support Contract</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F32" t="n">
+        <v>99</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1299</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>SO-10011</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>SAL-2025-032</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2025-05-15</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>CUS-012</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Dell Latitude 7440 Laptop</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>1899</v>
+      </c>
+      <c r="F33" t="n">
+        <v>156.67</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2055.67</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>SO-10012</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>SAL-2025-033</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2025-05-15</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>CUS-012</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Dell Latitude 7440 Laptop</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>1899</v>
+      </c>
+      <c r="F34" t="n">
+        <v>156.67</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2055.67</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>SO-10012</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>SAL-2025-034</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2025-05-15</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>CUS-012</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Dell Latitude 7440 Laptop</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>1899</v>
+      </c>
+      <c r="F35" t="n">
+        <v>156.67</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2055.67</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>SO-10012</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>SAL-2025-035</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2025-05-15</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>CUS-012</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Cisco Catalyst 1000-24T Switch</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>2195</v>
+      </c>
+      <c r="F36" t="n">
+        <v>181.09</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2376.09</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>SO-10012</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>SAL-2025-036</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>CUS-002</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Monthly IT Support Contract</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F37" t="n">
+        <v>99</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1299</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>SO-10013</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>SAL-2025-037</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2025-06-08</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>CUS-014</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Dell Precision 3660 Workstation</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>2899</v>
+      </c>
+      <c r="F38" t="n">
+        <v>239.17</v>
+      </c>
+      <c r="G38" t="n">
+        <v>3138.17</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>SO-10014</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>SAL-2025-038</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2025-06-08</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>CUS-014</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Dell Precision 3660 Workstation</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>2899</v>
+      </c>
+      <c r="F39" t="n">
+        <v>239.17</v>
+      </c>
+      <c r="G39" t="n">
+        <v>3138.17</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>SO-10014</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>SAL-2025-039</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2025-06-08</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>CUS-014</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Dell UltraSharp U2722D Monitor</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>549</v>
+      </c>
+      <c r="F40" t="n">
+        <v>45.29</v>
+      </c>
+      <c r="G40" t="n">
+        <v>594.29</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>SO-10014</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>SAL-2025-040</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2025-06-22</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>CUS-001</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Network Assessment</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>3500</v>
+      </c>
+      <c r="F41" t="n">
+        <v>288.75</v>
+      </c>
+      <c r="G41" t="n">
+        <v>3788.75</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>SO-10015</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>SAL-2025-041</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2025-06-28</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
           <t>CUS-008</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>IT Support - Hourly</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>600</v>
-      </c>
-      <c r="F31" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="G31" t="n">
-        <v>649.5</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>SO-10015</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Server Setup &amp; Configuration</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>4200</v>
+      </c>
+      <c r="F42" t="n">
+        <v>346.5</v>
+      </c>
+      <c r="G42" t="n">
+        <v>4546.5</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>SO-10016</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>SAL-2025-042</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>CUS-002</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Monthly IT Support Contract</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F43" t="n">
+        <v>99</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1299</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>SO-10017</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>SAL-2025-043</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>CUS-004</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Dell Latitude 5540 Laptop</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>1299</v>
+      </c>
+      <c r="F44" t="n">
+        <v>107.17</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1406.17</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>SO-10018</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>SAL-2025-044</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>CUS-004</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Dell Latitude 5540 Laptop</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>1299</v>
+      </c>
+      <c r="F45" t="n">
+        <v>107.17</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1406.17</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>SO-10018</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>SAL-2025-045</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>CUS-004</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Dell P2422H Monitor</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>249</v>
+      </c>
+      <c r="F46" t="n">
+        <v>20.54</v>
+      </c>
+      <c r="G46" t="n">
+        <v>269.54</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>SO-10018</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>SAL-2025-046</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>CUS-006</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Server Setup &amp; Configuration</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>4200</v>
+      </c>
+      <c r="F47" t="n">
+        <v>346.5</v>
+      </c>
+      <c r="G47" t="n">
+        <v>4546.5</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>SO-10019</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>SAL-2025-047</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2025-08-02</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>CUS-002</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Monthly IT Support Contract</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F48" t="n">
+        <v>99</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1299</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>SO-10020</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>SAL-2025-048</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>CUS-008</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Dell Latitude 5540 Laptop</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>1299</v>
+      </c>
+      <c r="F49" t="n">
+        <v>107.17</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1406.17</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>SO-10021</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>SAL-2025-049</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>CUS-008</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Dell P2422H Monitor</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>249</v>
+      </c>
+      <c r="F50" t="n">
+        <v>20.54</v>
+      </c>
+      <c r="G50" t="n">
+        <v>269.54</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>SO-10021</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>SAL-2025-050</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2025-08-20</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>CUS-013</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Cisco Meraki MX68 Firewall</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>1895</v>
+      </c>
+      <c r="F51" t="n">
+        <v>156.34</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2051.34</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>SO-10022</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>SAL-2025-051</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>CUS-002</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Monthly IT Support Contract</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F52" t="n">
+        <v>99</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1299</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>SO-10023</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>SAL-2025-052</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>CUS-013</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Dell OptiPlex 7010 Desktop</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>899</v>
+      </c>
+      <c r="F53" t="n">
+        <v>74.17</v>
+      </c>
+      <c r="G53" t="n">
+        <v>973.17</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>SO-10024</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>SAL-2025-053</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>CUS-013</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Dell OptiPlex 7010 Desktop</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>899</v>
+      </c>
+      <c r="F54" t="n">
+        <v>74.17</v>
+      </c>
+      <c r="G54" t="n">
+        <v>973.17</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>SO-10024</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>SAL-2025-054</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2025-09-22</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>CUS-015</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Microsoft 365 Business Premium</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>528</v>
+      </c>
+      <c r="F55" t="n">
+        <v>43.56</v>
+      </c>
+      <c r="G55" t="n">
+        <v>571.5599999999999</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>SO-10025</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>SAL-2025-055</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2025-09-22</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>CUS-015</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Microsoft 365 Business Premium</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>528</v>
+      </c>
+      <c r="F56" t="n">
+        <v>43.56</v>
+      </c>
+      <c r="G56" t="n">
+        <v>571.5599999999999</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>SO-10025</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>SAL-2025-056</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2025-10-02</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>CUS-002</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Monthly IT Support Contract</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F57" t="n">
+        <v>99</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1299</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>SO-10026</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>SAL-2025-057</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>CUS-010</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Dell Latitude 5540 Laptop</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>1299</v>
+      </c>
+      <c r="F58" t="n">
+        <v>107.17</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1406.17</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>SO-10027</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>SAL-2025-058</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2025-10-15</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>CUS-005</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Dell Latitude 5540 Laptop</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>1299</v>
+      </c>
+      <c r="F59" t="n">
+        <v>107.17</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1406.17</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>SO-10028</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>SAL-2025-059</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2025-10-15</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>CUS-005</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Dell P2422H Monitor</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>249</v>
+      </c>
+      <c r="F60" t="n">
+        <v>20.54</v>
+      </c>
+      <c r="G60" t="n">
+        <v>269.54</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>SO-10028</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>SAL-2025-060</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2025-10-25</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>CUS-011</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Adobe Creative Cloud</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>699</v>
+      </c>
+      <c r="F61" t="n">
+        <v>57.67</v>
+      </c>
+      <c r="G61" t="n">
+        <v>756.67</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>SO-10029</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>SAL-2025-061</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2025-10-25</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>CUS-011</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Adobe Creative Cloud</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>699</v>
+      </c>
+      <c r="F62" t="n">
+        <v>57.67</v>
+      </c>
+      <c r="G62" t="n">
+        <v>756.67</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>SO-10029</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>SAL-2025-062</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2025-11-02</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>CUS-002</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Monthly IT Support Contract</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F63" t="n">
+        <v>99</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1299</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>SO-10030</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>SAL-2025-063</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2025-11-08</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>CUS-007</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Dell OptiPlex 7010 Desktop</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>899</v>
+      </c>
+      <c r="F64" t="n">
+        <v>74.17</v>
+      </c>
+      <c r="G64" t="n">
+        <v>973.17</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>SO-10031</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>SAL-2025-064</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2025-11-08</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>CUS-007</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Dell OptiPlex 7010 Desktop</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>899</v>
+      </c>
+      <c r="F65" t="n">
+        <v>74.17</v>
+      </c>
+      <c r="G65" t="n">
+        <v>973.17</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>SO-10031</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>SAL-2025-065</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2025-11-08</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>CUS-007</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Dell P2422H Monitor</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>249</v>
+      </c>
+      <c r="F66" t="n">
+        <v>20.54</v>
+      </c>
+      <c r="G66" t="n">
+        <v>269.54</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>SO-10031</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>SAL-2025-066</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2025-11-20</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>CUS-001</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Data Migration Service</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>5500</v>
+      </c>
+      <c r="F67" t="n">
+        <v>453.75</v>
+      </c>
+      <c r="G67" t="n">
+        <v>5953.75</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>SO-10032</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>SAL-2025-067</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2025-12-02</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>CUS-002</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Monthly IT Support Contract</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F68" t="n">
+        <v>99</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1299</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>SO-10033</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>SAL-2025-068</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>CUS-012</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Dell Latitude 7440 Laptop</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>1899</v>
+      </c>
+      <c r="F69" t="n">
+        <v>156.67</v>
+      </c>
+      <c r="G69" t="n">
+        <v>2055.67</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>SO-10034</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>SAL-2025-069</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>CUS-012</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Dell Latitude 7440 Laptop</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>1899</v>
+      </c>
+      <c r="F70" t="n">
+        <v>156.67</v>
+      </c>
+      <c r="G70" t="n">
+        <v>2055.67</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>SO-10034</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>SAL-2025-070</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>CUS-006</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Network Assessment</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>3500</v>
+      </c>
+      <c r="F71" t="n">
+        <v>288.75</v>
+      </c>
+      <c r="G71" t="n">
+        <v>3788.75</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>SO-10035</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>SAL-2025-071</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>CUS-014</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Dell Precision 3660 Workstation</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>2899</v>
+      </c>
+      <c r="F72" t="n">
+        <v>239.17</v>
+      </c>
+      <c r="G72" t="n">
+        <v>3138.17</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>SO-10036</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>SAL-2025-072</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>CUS-014</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Dell UltraSharp U2722D Monitor</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>549</v>
+      </c>
+      <c r="F73" t="n">
+        <v>45.29</v>
+      </c>
+      <c r="G73" t="n">
+        <v>594.29</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>SO-10036</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>SAL-2025-073</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>CUS-009</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Server Setup &amp; Configuration</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>4200</v>
+      </c>
+      <c r="F74" t="n">
+        <v>346.5</v>
+      </c>
+      <c r="G74" t="n">
+        <v>4546.5</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>SO-10037</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>SAL-2025-074</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2025-01-28</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>CUS-004</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Network Assessment</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>3500</v>
+      </c>
+      <c r="F75" t="n">
+        <v>288.75</v>
+      </c>
+      <c r="G75" t="n">
+        <v>3788.75</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>SO-10038</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>SAL-2025-075</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2025-02-25</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>CUS-012</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Server Setup &amp; Configuration</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>4200</v>
+      </c>
+      <c r="F76" t="n">
+        <v>346.5</v>
+      </c>
+      <c r="G76" t="n">
+        <v>4546.5</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>SO-10039</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>SAL-2025-076</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2025-03-18</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>CUS-001</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Data Migration Service</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>5500</v>
+      </c>
+      <c r="F77" t="n">
+        <v>453.75</v>
+      </c>
+      <c r="G77" t="n">
+        <v>5953.75</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>SO-10040</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>SAL-2025-077</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2025-05-28</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>CUS-006</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Network Assessment</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>3500</v>
+      </c>
+      <c r="F78" t="n">
+        <v>288.75</v>
+      </c>
+      <c r="G78" t="n">
+        <v>3788.75</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>SO-10041</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>SAL-2025-078</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>CUS-004</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Data Migration Service</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>5500</v>
+      </c>
+      <c r="F79" t="n">
+        <v>453.75</v>
+      </c>
+      <c r="G79" t="n">
+        <v>5953.75</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>SO-10042</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>SAL-2025-079</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2025-09-28</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>CUS-012</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Server Setup &amp; Configuration</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>4200</v>
+      </c>
+      <c r="F80" t="n">
+        <v>346.5</v>
+      </c>
+      <c r="G80" t="n">
+        <v>4546.5</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>SO-10043</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>SAL-2025-080</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>CUS-001</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Network Assessment</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>3500</v>
+      </c>
+      <c r="F81" t="n">
+        <v>288.75</v>
+      </c>
+      <c r="G81" t="n">
+        <v>3788.75</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>SO-10044</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Paid</t>
         </is>
       </c>
     </row>
@@ -2776,7 +4826,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2834,12 +4884,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PUR-2024-001</t>
+          <t>PUR-2025-001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-10-11</t>
+          <t>2025-01-05</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2875,12 +4925,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PUR-2024-002</t>
+          <t>PUR-2025-002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024-10-14</t>
+          <t>2025-01-12</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2916,12 +4966,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PUR-2024-003</t>
+          <t>PUR-2025-003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2931,17 +4981,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Dell UltraSharp U2722D Monitor (12 units)</t>
+          <t>Dell UltraSharp U2722D Monitor (10 units)</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4188</v>
+        <v>3490</v>
       </c>
       <c r="F4" t="n">
-        <v>345.51</v>
+        <v>287.93</v>
       </c>
       <c r="G4" t="n">
-        <v>4533.51</v>
+        <v>3777.93</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -2957,32 +5007,32 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PUR-2024-004</t>
+          <t>PUR-2025-004</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2025-02-08</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SUP-001</t>
+          <t>SUP-007</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Dell P2422H Monitor (15 units)</t>
+          <t>Lenovo ThinkPad T14 (6 units)</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2235</v>
+        <v>5094</v>
       </c>
       <c r="F5" t="n">
-        <v>184.39</v>
+        <v>420.26</v>
       </c>
       <c r="G5" t="n">
-        <v>2419.39</v>
+        <v>5514.26</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -2998,32 +5048,32 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PUR-2024-005</t>
+          <t>PUR-2025-005</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
+          <t>2025-02-15</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SUP-007</t>
+          <t>SUP-004</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Lenovo ThinkPad T14 (6 units)</t>
+          <t>Cisco Meraki MX68 Firewall (3 units)</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5094</v>
+        <v>3585</v>
       </c>
       <c r="F6" t="n">
-        <v>420.26</v>
+        <v>295.76</v>
       </c>
       <c r="G6" t="n">
-        <v>5514.26</v>
+        <v>3880.76</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -3039,32 +5089,32 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PUR-2024-006</t>
+          <t>PUR-2025-006</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SUP-004</t>
+          <t>SUP-001</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Cisco Meraki MX68 Firewall (4 units)</t>
+          <t>Dell P2422H Monitor (12 units)</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4780</v>
+        <v>1788</v>
       </c>
       <c r="F7" t="n">
-        <v>394.35</v>
+        <v>147.51</v>
       </c>
       <c r="G7" t="n">
-        <v>5174.35</v>
+        <v>1935.51</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -3080,32 +5130,32 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PUR-2024-007</t>
+          <t>PUR-2025-007</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024-11-05</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SUP-004</t>
+          <t>SUP-001</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Cisco Catalyst 1000-24T Switch (5 units)</t>
+          <t>Dell Precision 3660 Workstation (4 units)</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7575</v>
+        <v>7996</v>
       </c>
       <c r="F8" t="n">
-        <v>624.9400000000001</v>
+        <v>659.67</v>
       </c>
       <c r="G8" t="n">
-        <v>8199.940000000001</v>
+        <v>8655.67</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -3121,32 +5171,32 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PUR-2024-008</t>
+          <t>PUR-2025-008</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024-11-10</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SUP-002</t>
+          <t>SUP-004</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Ubiquiti UniFi Access Point (20 units)</t>
+          <t>Cisco Catalyst 1000-24T Switch (4 units)</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2980</v>
+        <v>6060</v>
       </c>
       <c r="F9" t="n">
-        <v>245.85</v>
+        <v>499.95</v>
       </c>
       <c r="G9" t="n">
-        <v>3225.85</v>
+        <v>6559.95</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -3155,39 +5205,39 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Check</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PUR-2024-009</t>
+          <t>PUR-2025-009</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SUP-002</t>
+          <t>SUP-001</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Logitech MX Keys Keyboard (25 units)</t>
+          <t>Dell Latitude 7440 Laptop (5 units)</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2475</v>
+        <v>6745</v>
       </c>
       <c r="F10" t="n">
-        <v>204.19</v>
+        <v>556.46</v>
       </c>
       <c r="G10" t="n">
-        <v>2679.19</v>
+        <v>7301.46</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -3196,19 +5246,19 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Check</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PUR-2024-010</t>
+          <t>PUR-2025-010</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2025-06-15</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -3218,17 +5268,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Logitech MX Master 3 Mouse (25 units)</t>
+          <t>Logitech Peripherals Bundle</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2225</v>
+        <v>2475</v>
       </c>
       <c r="F11" t="n">
-        <v>183.56</v>
+        <v>204.19</v>
       </c>
       <c r="G11" t="n">
-        <v>2408.56</v>
+        <v>2679.19</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -3244,12 +5294,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PUR-2024-011</t>
+          <t>PUR-2025-011</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -3259,17 +5309,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Dell Latitude 7440 Laptop (5 units)</t>
+          <t>Dell Latitude 5540 Laptop (8 units)</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6745</v>
+        <v>7192</v>
       </c>
       <c r="F12" t="n">
-        <v>556.46</v>
+        <v>593.34</v>
       </c>
       <c r="G12" t="n">
-        <v>7301.46</v>
+        <v>7785.34</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -3285,12 +5335,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PUR-2024-012</t>
+          <t>PUR-2025-012</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-11-30</t>
+          <t>2025-08-10</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -3300,17 +5350,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Dell Precision 3660 Workstation (4 units)</t>
+          <t>Dell OptiPlex 7010 Desktop (6 units)</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>7996</v>
+        <v>4194</v>
       </c>
       <c r="F13" t="n">
-        <v>659.67</v>
+        <v>346.01</v>
       </c>
       <c r="G13" t="n">
-        <v>8655.67</v>
+        <v>4540.01</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -3326,32 +5376,32 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PUR-2024-013</t>
+          <t>PUR-2025-013</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024-10-16</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SUP-005</t>
+          <t>SUP-002</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Microsoft 365 Business (50 licenses)</t>
+          <t>Ubiquiti UniFi Access Point (15 units)</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6600</v>
+        <v>2235</v>
       </c>
       <c r="F14" t="n">
-        <v>544.5</v>
+        <v>184.39</v>
       </c>
       <c r="G14" t="n">
-        <v>7144.5</v>
+        <v>2419.39</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -3360,39 +5410,39 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Check</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PUR-2024-014</t>
+          <t>PUR-2025-014</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2025-10-05</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SUP-003</t>
+          <t>SUP-001</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Adobe Creative Cloud (10 licenses)</t>
+          <t>Dell Latitude 5540 Laptop (6 units)</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5988</v>
+        <v>5394</v>
       </c>
       <c r="F15" t="n">
-        <v>494.01</v>
+        <v>445.01</v>
       </c>
       <c r="G15" t="n">
-        <v>6482.01</v>
+        <v>5839.01</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -3401,39 +5451,39 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>PUR-2024-015</t>
+          <t>PUR-2025-015</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2025-11-02</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SUP-008</t>
+          <t>SUP-001</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Office Supplies - Q4</t>
+          <t>Dell Latitude 7440 Laptop (4 units)</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>845</v>
+        <v>5396</v>
       </c>
       <c r="F16" t="n">
-        <v>69.70999999999999</v>
+        <v>445.17</v>
       </c>
       <c r="G16" t="n">
-        <v>914.71</v>
+        <v>5841.17</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -3442,39 +5492,39 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PUR-2024-016</t>
+          <t>PUR-2025-016</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2025-12-01</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SUP-008</t>
+          <t>SUP-001</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Office Furniture - Desk chairs (4)</t>
+          <t>Dell Precision 3660 Workstation (3 units)</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1596</v>
+        <v>5997</v>
       </c>
       <c r="F17" t="n">
-        <v>131.67</v>
+        <v>494.75</v>
       </c>
       <c r="G17" t="n">
-        <v>1727.67</v>
+        <v>6491.75</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -3483,39 +5533,39 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Check</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>PUR-2024-017</t>
+          <t>PUR-2025-017</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024-12-20</t>
+          <t>2025-01-15</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>SUP-008</t>
+          <t>SUP-005</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Printer Paper and Toner</t>
+          <t>Microsoft 365 Business (40 licenses)</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>425</v>
+        <v>5280</v>
       </c>
       <c r="F18" t="n">
-        <v>35.06</v>
+        <v>435.6</v>
       </c>
       <c r="G18" t="n">
-        <v>460.06</v>
+        <v>5715.6</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -3531,12 +5581,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>PUR-2024-018</t>
+          <t>PUR-2025-018</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2024-12-10</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -3546,17 +5596,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Marketing - Digital Ads Campaign</t>
+          <t>Adobe Creative Cloud (8 licenses)</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2500</v>
+        <v>4790.4</v>
       </c>
       <c r="F19" t="n">
-        <v>206.25</v>
+        <v>395.21</v>
       </c>
       <c r="G19" t="n">
-        <v>2706.25</v>
+        <v>5185.61</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -3565,39 +5615,39 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>PUR-2024-019</t>
+          <t>PUR-2025-019</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>SUP-003</t>
+          <t>SUP-008</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Professional Development Training</t>
+          <t>Office Supplies - Q1</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1800</v>
+        <v>645</v>
       </c>
       <c r="F20" t="n">
-        <v>148.5</v>
+        <v>53.21</v>
       </c>
       <c r="G20" t="n">
-        <v>1948.5</v>
+        <v>698.21</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -3613,12 +5663,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>PUR-2024-020</t>
+          <t>PUR-2025-020</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2025-01-04</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -3628,17 +5678,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Office Supplies - January</t>
+          <t>Office Supplies - Q2</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>325</v>
+        <v>525</v>
       </c>
       <c r="F21" t="n">
-        <v>26.81</v>
+        <v>43.31</v>
       </c>
       <c r="G21" t="n">
-        <v>351.81</v>
+        <v>568.3099999999999</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -3646,6 +5696,211 @@
         </is>
       </c>
       <c r="I21" t="inlineStr">
+        <is>
+          <t>Credit Card</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>PUR-2025-021</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>SUP-008</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Office Supplies - Q3</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>485</v>
+      </c>
+      <c r="F22" t="n">
+        <v>40.01</v>
+      </c>
+      <c r="G22" t="n">
+        <v>525.01</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>PO-20021</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Credit Card</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>PUR-2025-022</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>SUP-008</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Office Supplies - Q4</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>565</v>
+      </c>
+      <c r="F23" t="n">
+        <v>46.61</v>
+      </c>
+      <c r="G23" t="n">
+        <v>611.61</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>PO-20022</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Credit Card</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>PUR-2025-023</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>SUP-003</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Marketing - Spring Campaign</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F24" t="n">
+        <v>148.5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1948.5</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>PO-20023</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Bank Transfer</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>PUR-2025-024</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>SUP-003</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Marketing - Fall Campaign</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>1600</v>
+      </c>
+      <c r="F25" t="n">
+        <v>132</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1732</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>PO-20024</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Bank Transfer</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>PUR-2025-025</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025-06-20</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>SUP-003</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Professional Development Training</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F26" t="n">
+        <v>99</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1299</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>PO-20025</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>Credit Card</t>
         </is>
@@ -3662,7 +5917,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3698,20 +5953,15 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>Reorder Point</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Reorder Point</t>
+          <t>Unit Cost</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
-        <is>
-          <t>Unit Cost</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
         <is>
           <t>Last Updated</t>
         </is>
@@ -3734,23 +5984,20 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E2" t="n">
         <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
-      </c>
-      <c r="H2" t="n">
         <v>899</v>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>2025-01-12</t>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
         </is>
       </c>
     </row>
@@ -3771,7 +6018,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -3780,14 +6027,11 @@
         <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
-      </c>
-      <c r="H3" t="n">
         <v>1349</v>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>2025-01-11</t>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
         </is>
       </c>
     </row>
@@ -3808,23 +6052,20 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
-      </c>
-      <c r="H4" t="n">
         <v>849</v>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>2025-01-09</t>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
         </is>
       </c>
     </row>
@@ -3845,23 +6086,20 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E5" t="n">
         <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
-      </c>
-      <c r="H5" t="n">
         <v>699</v>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>2025-01-12</t>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
         </is>
       </c>
     </row>
@@ -3882,7 +6120,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -3891,14 +6129,11 @@
         <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H6" t="n">
         <v>1999</v>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>2025-01-10</t>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-12-22</t>
         </is>
       </c>
     </row>
@@ -3919,23 +6154,20 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G7" t="n">
-        <v>6</v>
-      </c>
-      <c r="H7" t="n">
         <v>349</v>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>2025-01-13</t>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-12-25</t>
         </is>
       </c>
     </row>
@@ -3956,23 +6188,20 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8" t="n">
         <v>8</v>
       </c>
       <c r="G8" t="n">
-        <v>8</v>
-      </c>
-      <c r="H8" t="n">
         <v>149</v>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>2025-01-12</t>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
         </is>
       </c>
     </row>
@@ -3993,23 +6222,20 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
-      </c>
-      <c r="H9" t="n">
         <v>1195</v>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>2025-01-08</t>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-12-18</t>
         </is>
       </c>
     </row>
@@ -4030,23 +6256,20 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
-      </c>
-      <c r="H10" t="n">
         <v>1515</v>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>2025-01-07</t>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-12-10</t>
         </is>
       </c>
     </row>
@@ -4067,23 +6290,20 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F11" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G11" t="n">
-        <v>10</v>
-      </c>
-      <c r="H11" t="n">
         <v>149</v>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>2025-01-11</t>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
         </is>
       </c>
     </row>
@@ -4104,23 +6324,20 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F12" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G12" t="n">
-        <v>12</v>
-      </c>
-      <c r="H12" t="n">
         <v>99</v>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>2025-01-12</t>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
         </is>
       </c>
     </row>
@@ -4141,23 +6358,20 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E13" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F13" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G13" t="n">
-        <v>12</v>
-      </c>
-      <c r="H13" t="n">
         <v>89</v>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>2025-01-12</t>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
         </is>
       </c>
     </row>
@@ -4178,23 +6392,20 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G14" t="n">
-        <v>8</v>
-      </c>
-      <c r="H14" t="n">
         <v>69</v>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>2025-01-10</t>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2025-12-22</t>
         </is>
       </c>
     </row>
@@ -4215,23 +6426,20 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
-      </c>
-      <c r="H15" t="n">
         <v>349</v>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>2025-01-09</t>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
         </is>
       </c>
     </row>
@@ -4252,23 +6460,20 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
-      </c>
-      <c r="H16" t="n">
         <v>149</v>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>2025-01-09</t>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
         </is>
       </c>
     </row>
@@ -4283,7 +6488,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4365,7 +6570,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2024-10-11 00:00:00</t>
+          <t>2025-01-05 10:00:00</t>
         </is>
       </c>
     </row>
@@ -4401,7 +6606,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2024-10-14 00:00:00</t>
+          <t>2025-01-12 11:00:00</t>
         </is>
       </c>
     </row>
@@ -4422,13 +6627,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -4437,7 +6642,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2024-10-18 00:00:00</t>
+          <t>2025-01-20 09:30:00</t>
         </is>
       </c>
     </row>
@@ -4458,7 +6663,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -4473,7 +6678,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2024-10-18 00:00:00</t>
+          <t>2025-01-08 14:00:00</t>
         </is>
       </c>
     </row>
@@ -4494,7 +6699,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -4509,7 +6714,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2024-10-23 00:00:00</t>
+          <t>2025-01-22 15:30:00</t>
         </is>
       </c>
     </row>
@@ -4521,31 +6726,31 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>INV-ITM-013</t>
+          <t>INV-ITM-001</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Damaged</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E7" t="n">
+        <v>8</v>
+      </c>
+      <c r="F7" t="n">
         <v>16</v>
       </c>
-      <c r="F7" t="n">
-        <v>15</v>
-      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Damaged during shipping</t>
+          <t>Restocked from PO-20011</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2024-11-25 00:00:00</t>
+          <t>2025-07-05 10:00:00</t>
         </is>
       </c>
     </row>
@@ -4557,7 +6762,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>INV-ITM-010</t>
+          <t>INV-ITM-005</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -4566,22 +6771,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Initial stock from PO-20008</t>
+          <t>Initial stock from PO-20007</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2024-11-10 00:00:00</t>
+          <t>2025-04-10 11:00:00</t>
         </is>
       </c>
     </row>
@@ -4593,7 +6798,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>INV-ITM-005</t>
+          <t>INV-ITM-002</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -4602,22 +6807,94 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Received from PO-20012</t>
+          <t>Initial stock from PO-20009</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2024-11-30 00:00:00</t>
+          <t>2025-05-08 09:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ADJ-009</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>INV-ITM-013</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Remove</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>15</v>
+      </c>
+      <c r="F10" t="n">
+        <v>14</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Damaged during handling</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-08-15 16:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ADJ-010</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>INV-ITM-001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>6</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="n">
+        <v>16</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Restocked from PO-20014</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-10-05 10:30:00</t>
         </is>
       </c>
     </row>
@@ -4632,7 +6909,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4685,12 +6962,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2025-01-02</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-10-13</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -4715,12 +6992,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-10-11</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -4745,16 +7022,16 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2025-02-12</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2025-02-19</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5174.35</v>
+        <v>3880.76</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -4770,21 +7047,21 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SUP-002</t>
+          <t>SUP-001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024-12-30</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-01-06</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3225.85</v>
+        <v>8655.67</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -4805,20 +7082,20 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8655.67</v>
+        <v>7785.34</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Sent</t>
+          <t>Received</t>
         </is>
       </c>
     </row>
@@ -4830,23 +7107,83 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>SUP-001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2025-10-02</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2025-10-09</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>5839.01</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>PO-007</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>SUP-001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>6491.75</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sent</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>PO-008</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>SUP-007</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2025-01-14</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2025-01-21</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2026-01-05</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
         <v>5514.26</v>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Draft</t>
         </is>
@@ -5124,7 +7461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5200,17 +7537,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024-12-15</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -5243,17 +7580,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2025-05-05</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-01-08</t>
+          <t>2025-05-12</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -5286,17 +7623,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -5329,12 +7666,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>2025-09-20</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-09-27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -5342,7 +7684,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Returned</t>
         </is>
       </c>
     </row>
@@ -5367,12 +7709,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-01-11</t>
+          <t>2025-10-10</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -5380,7 +7727,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Returned</t>
         </is>
       </c>
     </row>
@@ -5405,18 +7752,99 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-01-04</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2025-12-22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2025-12-22</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>320</v>
       </c>
       <c r="I7" t="inlineStr">
+        <is>
+          <t>Returned</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>RNT-007</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CUS-011</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>RNT-ITM-001</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>300</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>RNT-008</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CUS-009</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>RNT-ITM-003</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2026-01-04</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>400</v>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
@@ -5504,7 +7932,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2026-01-02</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -5539,7 +7967,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -5574,7 +8002,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-02-28</t>
+          <t>2026-01-25</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -5609,7 +8037,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-11-30</t>
+          <t>2026-05-15</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -8545,7 +10973,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8608,7 +11036,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>INV-2024-001</t>
+          <t>INV-2025-001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -8618,25 +11046,25 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-10-16</t>
+          <t>2025-01-15</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>2025-02-14</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>12500</v>
+        <v>15500</v>
       </c>
       <c r="F2" t="n">
-        <v>1031.25</v>
+        <v>1278.75</v>
       </c>
       <c r="G2" t="n">
-        <v>13531.25</v>
+        <v>16778.75</v>
       </c>
       <c r="H2" t="n">
-        <v>13531.25</v>
+        <v>16778.75</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -8650,7 +11078,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>INV-2024-002</t>
+          <t>INV-2025-002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -8660,25 +11088,25 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8750</v>
+        <v>12750</v>
       </c>
       <c r="F3" t="n">
-        <v>721.88</v>
+        <v>1051.88</v>
       </c>
       <c r="G3" t="n">
-        <v>9471.879999999999</v>
+        <v>13801.88</v>
       </c>
       <c r="H3" t="n">
-        <v>9471.879999999999</v>
+        <v>13801.88</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -8692,7 +11120,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>INV-2024-003</t>
+          <t>INV-2025-003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -8702,25 +11130,25 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-11-30</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2400</v>
+        <v>9600</v>
       </c>
       <c r="F4" t="n">
-        <v>198</v>
+        <v>792</v>
       </c>
       <c r="G4" t="n">
-        <v>2598</v>
+        <v>10392</v>
       </c>
       <c r="H4" t="n">
-        <v>2598</v>
+        <v>10392</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -8734,7 +11162,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>INV-2024-004</t>
+          <t>INV-2025-004</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -8744,25 +11172,25 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024-11-05</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>15200</v>
+        <v>18200</v>
       </c>
       <c r="F5" t="n">
-        <v>1254</v>
+        <v>1501.5</v>
       </c>
       <c r="G5" t="n">
-        <v>16454</v>
+        <v>19701.5</v>
       </c>
       <c r="H5" t="n">
-        <v>16454</v>
+        <v>19701.5</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -8776,7 +11204,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>INV-2024-005</t>
+          <t>INV-2025-005</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -8786,25 +11214,25 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2024-11-10</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-12-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5600</v>
+        <v>8600</v>
       </c>
       <c r="F6" t="n">
-        <v>462</v>
+        <v>709.5</v>
       </c>
       <c r="G6" t="n">
-        <v>6062</v>
+        <v>9309.5</v>
       </c>
       <c r="H6" t="n">
-        <v>6062</v>
+        <v>9309.5</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -8818,7 +11246,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>INV-2024-006</t>
+          <t>INV-2025-006</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -8828,25 +11256,25 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-12-15</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>9800</v>
+        <v>11800</v>
       </c>
       <c r="F7" t="n">
-        <v>808.5</v>
+        <v>973.5</v>
       </c>
       <c r="G7" t="n">
-        <v>10608.5</v>
+        <v>12773.5</v>
       </c>
       <c r="H7" t="n">
-        <v>10608.5</v>
+        <v>12773.5</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -8860,7 +11288,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>INV-2024-007</t>
+          <t>INV-2025-007</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -8870,25 +11298,25 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-12-20</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7200</v>
+        <v>9200</v>
       </c>
       <c r="F8" t="n">
-        <v>594</v>
+        <v>759</v>
       </c>
       <c r="G8" t="n">
-        <v>7794</v>
+        <v>9959</v>
       </c>
       <c r="H8" t="n">
-        <v>7794</v>
+        <v>9959</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -8902,7 +11330,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>INV-2024-008</t>
+          <t>INV-2025-008</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -8912,25 +11340,25 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2025-06-07</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="F9" t="n">
-        <v>371.25</v>
+        <v>618.75</v>
       </c>
       <c r="G9" t="n">
-        <v>4871.25</v>
+        <v>8118.75</v>
       </c>
       <c r="H9" t="n">
-        <v>4871.25</v>
+        <v>8118.75</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -8944,7 +11372,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INV-2024-009</t>
+          <t>INV-2025-009</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -8954,25 +11382,25 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2024-11-30</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-12-30</t>
+          <t>2025-06-21</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>18500</v>
+        <v>22500</v>
       </c>
       <c r="F10" t="n">
-        <v>1526.25</v>
+        <v>1856.25</v>
       </c>
       <c r="G10" t="n">
-        <v>20026.25</v>
+        <v>24356.25</v>
       </c>
       <c r="H10" t="n">
-        <v>20026.25</v>
+        <v>24356.25</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -8986,7 +11414,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>INV-2024-010</t>
+          <t>INV-2025-010</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -8996,25 +11424,25 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-01-04</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>11200</v>
+        <v>14200</v>
       </c>
       <c r="F11" t="n">
-        <v>924</v>
+        <v>1171.5</v>
       </c>
       <c r="G11" t="n">
-        <v>12124</v>
+        <v>15371.5</v>
       </c>
       <c r="H11" t="n">
-        <v>12124</v>
+        <v>15371.5</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -9028,7 +11456,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>INV-2024-011</t>
+          <t>INV-2025-011</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -9038,39 +11466,39 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2024-12-10</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="F12" t="n">
-        <v>701.25</v>
+        <v>948.75</v>
       </c>
       <c r="G12" t="n">
-        <v>9201.25</v>
+        <v>12448.75</v>
       </c>
       <c r="H12" t="n">
-        <v>5000</v>
+        <v>12448.75</v>
       </c>
       <c r="I12" t="n">
-        <v>4201.25</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Paid</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>INV-2024-012</t>
+          <t>INV-2025-012</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -9080,39 +11508,39 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2024-12-15</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-01-14</t>
+          <t>2025-08-14</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6200</v>
+        <v>9200</v>
       </c>
       <c r="F13" t="n">
-        <v>511.5</v>
+        <v>759</v>
       </c>
       <c r="G13" t="n">
-        <v>6711.5</v>
+        <v>9959</v>
       </c>
       <c r="H13" t="n">
-        <v>3000</v>
+        <v>9959</v>
       </c>
       <c r="I13" t="n">
-        <v>3711.5</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Paid</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>INV-2024-013</t>
+          <t>INV-2025-013</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -9122,39 +11550,39 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2024-12-20</t>
+          <t>2025-08-05</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-09-04</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3800</v>
+        <v>16800</v>
       </c>
       <c r="F14" t="n">
-        <v>313.5</v>
+        <v>1386</v>
       </c>
       <c r="G14" t="n">
-        <v>4113.5</v>
+        <v>18186</v>
       </c>
       <c r="H14" t="n">
+        <v>18186</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>4113.5</v>
-      </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Sent</t>
+          <t>Paid</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>INV-2024-014</t>
+          <t>INV-2025-014</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -9164,39 +11592,39 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2025-08-20</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-01-24</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2200</v>
+        <v>5200</v>
       </c>
       <c r="F15" t="n">
-        <v>181.5</v>
+        <v>429</v>
       </c>
       <c r="G15" t="n">
-        <v>2381.5</v>
+        <v>5629</v>
       </c>
       <c r="H15" t="n">
+        <v>5629</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>2381.5</v>
-      </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Sent</t>
+          <t>Paid</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>INV-2024-015</t>
+          <t>INV-2025-015</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -9206,39 +11634,39 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2024-12-30</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-01-29</t>
+          <t>2025-10-10</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4800</v>
+        <v>7800</v>
       </c>
       <c r="F16" t="n">
-        <v>396</v>
+        <v>643.5</v>
       </c>
       <c r="G16" t="n">
-        <v>5196</v>
+        <v>8443.5</v>
       </c>
       <c r="H16" t="n">
+        <v>8443.5</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>5196</v>
-      </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Sent</t>
+          <t>Paid</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>INV-2024-016</t>
+          <t>INV-2025-016</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -9248,39 +11676,39 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-12-15</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1800</v>
+        <v>6200</v>
       </c>
       <c r="F17" t="n">
-        <v>148.5</v>
+        <v>511.5</v>
       </c>
       <c r="G17" t="n">
-        <v>1948.5</v>
+        <v>6711.5</v>
       </c>
       <c r="H17" t="n">
+        <v>6711.5</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>1948.5</v>
-      </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Overdue</t>
+          <t>Paid</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>INV-2024-017</t>
+          <t>INV-2025-017</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -9290,39 +11718,39 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2025-11-14</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2950</v>
+        <v>3950</v>
       </c>
       <c r="F18" t="n">
-        <v>243.38</v>
+        <v>325.88</v>
       </c>
       <c r="G18" t="n">
-        <v>3193.38</v>
+        <v>4275.88</v>
       </c>
       <c r="H18" t="n">
+        <v>4275.88</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>3193.38</v>
-      </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Overdue</t>
+          <t>Paid</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>INV-2024-018</t>
+          <t>INV-2025-018</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -9332,39 +11760,39 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2025-01-14</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-11-29</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2400</v>
+        <v>9600</v>
       </c>
       <c r="F19" t="n">
-        <v>198</v>
+        <v>792</v>
       </c>
       <c r="G19" t="n">
-        <v>2598</v>
+        <v>10392</v>
       </c>
       <c r="H19" t="n">
+        <v>10392</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>2598</v>
-      </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Draft</t>
+          <t>Paid</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>INV-2024-019</t>
+          <t>INV-2025-019</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -9374,39 +11802,39 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2025-01-14</t>
+          <t>2025-11-12</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-12-12</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="F20" t="n">
-        <v>453.75</v>
+        <v>701.25</v>
       </c>
       <c r="G20" t="n">
-        <v>5953.75</v>
+        <v>9201.25</v>
       </c>
       <c r="H20" t="n">
+        <v>9201.25</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>5953.75</v>
-      </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Draft</t>
+          <t>Paid</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>INV-2024-020</t>
+          <t>INV-2025-020</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -9416,30 +11844,240 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2025-01-14</t>
+          <t>2025-11-25</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-12-25</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>3200</v>
+        <v>6200</v>
       </c>
       <c r="F21" t="n">
-        <v>264</v>
+        <v>511.5</v>
       </c>
       <c r="G21" t="n">
-        <v>3464</v>
+        <v>6711.5</v>
       </c>
       <c r="H21" t="n">
+        <v>6711.5</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>3464</v>
-      </c>
       <c r="J21" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>INV-2025-021</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CUS-001</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2026-01-04</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>13500</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1113.75</v>
+      </c>
+      <c r="G22" t="n">
+        <v>14613.75</v>
+      </c>
+      <c r="H22" t="n">
+        <v>14613.75</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>INV-2025-022</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>CUS-012</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2025-12-10</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2026-01-09</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>19800</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1633.5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>21433.5</v>
+      </c>
+      <c r="H23" t="n">
+        <v>10000</v>
+      </c>
+      <c r="I23" t="n">
+        <v>11433.5</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>INV-2025-023</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>CUS-006</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2026-01-14</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>8200</v>
+      </c>
+      <c r="F24" t="n">
+        <v>676.5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>8876.5</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>8876.5</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Sent</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>INV-2025-024</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>CUS-014</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2026-01-19</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>11500</v>
+      </c>
+      <c r="F25" t="n">
+        <v>948.75</v>
+      </c>
+      <c r="G25" t="n">
+        <v>12448.75</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>12448.75</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Sent</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>INV-2025-025</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>CUS-004</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>7800</v>
+      </c>
+      <c r="F26" t="n">
+        <v>643.5</v>
+      </c>
+      <c r="G26" t="n">
+        <v>8443.5</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>8443.5</v>
+      </c>
+      <c r="J26" t="inlineStr">
         <is>
           <t>Draft</t>
         </is>
@@ -9456,7 +12094,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9514,7 +12152,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>INV-2024-001</t>
+          <t>INV-2025-001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -9524,11 +12162,11 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-11-13</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>13531.25</v>
+        <v>16778.75</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -9554,7 +12192,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>INV-2024-002</t>
+          <t>INV-2025-002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -9564,11 +12202,11 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-11-17</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>9471.879999999999</v>
+        <v>13801.88</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -9594,7 +12232,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>INV-2024-003</t>
+          <t>INV-2025-003</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -9604,20 +12242,20 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2025-03-08</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2598</v>
+        <v>10392</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>CC-9982</t>
+          <t>ACH-78523</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -9634,7 +12272,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>INV-2024-004</t>
+          <t>INV-2025-004</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -9644,11 +12282,11 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>16454</v>
+        <v>19701.5</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -9657,7 +12295,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>ACH-78523</t>
+          <t>ACH-78589</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -9674,7 +12312,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>INV-2024-005</t>
+          <t>INV-2025-005</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -9684,11 +12322,11 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-12-07</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6062</v>
+        <v>9309.5</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -9714,7 +12352,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>INV-2024-006</t>
+          <t>INV-2025-006</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -9724,11 +12362,11 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>10608.5</v>
+        <v>12773.5</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -9754,7 +12392,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>INV-2024-007</t>
+          <t>INV-2025-007</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -9764,11 +12402,11 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-05-12</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7794</v>
+        <v>9959</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -9794,7 +12432,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>INV-2024-008</t>
+          <t>INV-2025-008</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -9804,11 +12442,11 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4871.25</v>
+        <v>8118.75</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -9834,7 +12472,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>INV-2024-009</t>
+          <t>INV-2025-009</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -9844,11 +12482,11 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-12-27</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>20026.25</v>
+        <v>24356.25</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -9874,7 +12512,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>INV-2024-010</t>
+          <t>INV-2025-010</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -9884,11 +12522,11 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-01-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>12124</v>
+        <v>15371.5</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -9914,7 +12552,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>INV-2024-011</t>
+          <t>INV-2025-011</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -9924,11 +12562,11 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-01-06</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5000</v>
+        <v>12448.75</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -9942,7 +12580,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Partial payment - balance due</t>
+          <t>Full payment</t>
         </is>
       </c>
     </row>
@@ -9954,7 +12592,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>INV-2024-012</t>
+          <t>INV-2025-012</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -9964,11 +12602,11 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>2025-08-10</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>3000</v>
+        <v>9959</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -9981,6 +12619,406 @@
         </is>
       </c>
       <c r="H13" t="inlineStr">
+        <is>
+          <t>Full payment</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>PAY-013</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>INV-2025-013</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>CUS-006</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2025-08-30</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>18186</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Bank Transfer</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>ACH-78856</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Full payment</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>PAY-014</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>INV-2025-014</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>CUS-008</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>5629</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Credit Card</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>CC-10021</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Full payment</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>PAY-015</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>INV-2025-015</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>CUS-013</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2025-10-05</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>8443.5</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Check</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>CHK-4756</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Full payment</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>PAY-016</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>INV-2025-016</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>CUS-015</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>6711.5</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Bank Transfer</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>ACH-78912</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Full payment</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>PAY-017</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>INV-2025-017</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>CUS-010</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2025-11-08</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>4275.88</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Credit Card</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>CC-10089</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Full payment</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>PAY-018</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>INV-2025-018</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>CUS-002</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2025-11-25</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>10392</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Bank Transfer</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>ACH-78978</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Full payment</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>PAY-019</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>INV-2025-019</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>CUS-011</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2025-12-08</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>9201.25</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Credit Card</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>CC-10112</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Full payment</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>PAY-020</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>INV-2025-020</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>CUS-007</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>6711.5</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Check</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>CHK-4812</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Full payment</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>PAY-021</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>INV-2025-021</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>CUS-001</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>14613.75</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Bank Transfer</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>ACH-79012</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Full payment</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>PAY-022</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>INV-2025-022</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>CUS-012</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>10000</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Bank Transfer</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>ACH-79045</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
         <is>
           <t>Partial payment</t>
         </is>

--- a/ArgoBooks/Resources/SampleCompanyData.xlsx
+++ b/ArgoBooks/Resources/SampleCompanyData.xlsx
@@ -9160,7 +9160,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9206,7 +9206,27 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
+          <t>Category Name</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
           <t>Supplier ID</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Supplier Name</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Reorder Point</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Overstock Threshold</t>
         </is>
       </c>
     </row>
@@ -9248,8 +9268,24 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>Laptops</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
           <t>SUP-001</t>
         </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Dell Technologies</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -9290,8 +9326,24 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>Laptops</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>SUP-001</t>
         </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Dell Technologies</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>10</v>
+      </c>
+      <c r="L3" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -9332,8 +9384,24 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>Laptops</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>SUP-007</t>
         </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>10</v>
+      </c>
+      <c r="L4" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="5">
@@ -9374,8 +9442,24 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>Desktops</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>SUP-001</t>
         </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Dell Technologies</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>10</v>
+      </c>
+      <c r="L5" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -9416,8 +9500,24 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>Desktops</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>SUP-001</t>
         </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Dell Technologies</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>10</v>
+      </c>
+      <c r="L6" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -9458,8 +9558,24 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>Monitors</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>SUP-001</t>
         </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Dell Technologies</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>10</v>
+      </c>
+      <c r="L7" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -9500,8 +9616,24 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>Monitors</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>SUP-001</t>
         </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Dell Technologies</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>10</v>
+      </c>
+      <c r="L8" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -9542,8 +9674,24 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>Networking</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>SUP-004</t>
         </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Cisco Systems</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>10</v>
+      </c>
+      <c r="L9" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="10">
@@ -9584,8 +9732,24 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
+          <t>Networking</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>SUP-004</t>
         </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Cisco Systems</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>10</v>
+      </c>
+      <c r="L10" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -9626,8 +9790,24 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
+          <t>Networking</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>SUP-002</t>
         </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Ingram Micro</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>10</v>
+      </c>
+      <c r="L11" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="12">
@@ -9668,8 +9848,24 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
+          <t>Peripherals</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>SUP-002</t>
         </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Ingram Micro</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>10</v>
+      </c>
+      <c r="L12" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="13">
@@ -9710,8 +9906,24 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
+          <t>Peripherals</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>SUP-002</t>
         </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Ingram Micro</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>10</v>
+      </c>
+      <c r="L13" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="14">
@@ -9752,8 +9964,24 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
+          <t>Peripherals</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>SUP-002</t>
         </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Ingram Micro</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>10</v>
+      </c>
+      <c r="L14" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="15">
@@ -9794,8 +10022,24 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>SUP-005</t>
         </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Microsoft Corporation</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>10</v>
+      </c>
+      <c r="L15" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="16">
@@ -9836,8 +10080,24 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>SUP-003</t>
         </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Tech Data Corporation</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>10</v>
+      </c>
+      <c r="L16" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="17">
@@ -9876,6 +10136,18 @@
           <t>CAT-SAL-009</t>
         </is>
       </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Support Contracts</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -9913,6 +10185,18 @@
           <t>CAT-SAL-009</t>
         </is>
       </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Support Contracts</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -9950,6 +10234,18 @@
           <t>CAT-SAL-010</t>
         </is>
       </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Consulting</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -9987,6 +10283,18 @@
           <t>CAT-SAL-010</t>
         </is>
       </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Consulting</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -10023,6 +10331,18 @@
         <is>
           <t>CAT-SAL-010</t>
         </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Consulting</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/ArgoBooks/Resources/SampleCompanyData.xlsx
+++ b/ArgoBooks/Resources/SampleCompanyData.xlsx
@@ -24,6 +24,7 @@
     <sheet name="Rental Inventory" sheetId="15" state="visible" r:id="rId15"/>
     <sheet name="Rental Records" sheetId="16" state="visible" r:id="rId16"/>
     <sheet name="Recurring Invoices" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Purchase Order Line Items" sheetId="18" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -33,7 +34,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -41,13 +42,22 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ADD8E6"/>
+        <bgColor rgb="00ADD8E6"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -62,8 +72,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -8051,6 +8064,479 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="19" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PO ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Product ID</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Unit Cost</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Quantity Received</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>PO-001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>PRD-001</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>899</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PO-001</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>PRD-004</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>699</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PO-001</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>PRD-007</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>149</v>
+      </c>
+      <c r="E4" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PO-002</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PRD-002</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1349</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PO-002</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PRD-006</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>349</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>PO-003</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>PRD-008</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1195</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>PO-003</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>PRD-009</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1515</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>PO-004</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>PRD-002</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1349</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>PO-004</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>PRD-001</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>899</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>PO-004</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>PRD-007</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" t="n">
+        <v>149</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>PO-005</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>PRD-005</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1999</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>PO-005</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>PRD-004</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>699</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>PO-005</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>PRD-007</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>149</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>PO-006</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>PRD-001</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>899</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>PO-006</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>PRD-006</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>349</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>PO-006</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>PRD-007</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" t="n">
+        <v>149</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>PO-007</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>PRD-002</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1349</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>PO-007</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>PRD-004</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" t="n">
+        <v>699</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>PO-007</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>PRD-006</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" t="n">
+        <v>349</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>PO-008</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>PRD-003</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>6</v>
+      </c>
+      <c r="D21" t="n">
+        <v>849</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -9160,7 +9646,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10141,7 +10627,6 @@
           <t>Support Contracts</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
         <v>0</v>
       </c>
@@ -10190,7 +10675,6 @@
           <t>Support Contracts</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
         <v>0</v>
       </c>
@@ -10239,7 +10723,6 @@
           <t>Consulting</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
         <v>0</v>
       </c>
@@ -10288,7 +10771,6 @@
           <t>Consulting</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
         <v>0</v>
       </c>
@@ -10337,7 +10819,6 @@
           <t>Consulting</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
         <v>0</v>
       </c>

--- a/ArgoBooks/Resources/SampleCompanyData.xlsx
+++ b/ArgoBooks/Resources/SampleCompanyData.xlsx
@@ -4912,7 +4912,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Dell Latitude 5540 Laptop (10 units)</t>
+          <t>Dell Latitude 5540 Laptop (Inventory)</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -4953,7 +4953,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Dell OptiPlex 7010 Desktop (8 units)</t>
+          <t>Dell OptiPlex 7010 Desktop (Inventory)</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -4994,7 +4994,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Dell UltraSharp U2722D Monitor (10 units)</t>
+          <t>Dell UltraSharp U2722D Monitor (Inventory)</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -5035,7 +5035,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Lenovo ThinkPad T14 (6 units)</t>
+          <t>Lenovo ThinkPad T14 (Inventory)</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -5076,7 +5076,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Cisco Meraki MX68 Firewall (3 units)</t>
+          <t>Cisco Meraki MX68 Firewall (Inventory)</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -5117,7 +5117,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Dell P2422H Monitor (12 units)</t>
+          <t>Dell P2422H Monitor (Inventory)</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -5158,7 +5158,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Dell Precision 3660 Workstation (4 units)</t>
+          <t>Dell Precision 3660 Workstation (Inventory)</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -5199,7 +5199,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Cisco Catalyst 1000-24T Switch (4 units)</t>
+          <t>Cisco Catalyst 1000-24T Switch (Inventory)</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -5240,7 +5240,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Dell Latitude 7440 Laptop (5 units)</t>
+          <t>Dell Latitude 7440 Laptop (Inventory)</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -5322,7 +5322,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Dell Latitude 5540 Laptop (8 units)</t>
+          <t>Dell Latitude 5540 Laptop (Inventory)</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -5363,7 +5363,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Dell OptiPlex 7010 Desktop (6 units)</t>
+          <t>Dell OptiPlex 7010 Desktop (Inventory)</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -5404,7 +5404,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Ubiquiti UniFi Access Point (15 units)</t>
+          <t>Ubiquiti UniFi Access Point (Inventory)</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -5445,7 +5445,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Dell Latitude 5540 Laptop (6 units)</t>
+          <t>Dell Latitude 5540 Laptop (Inventory)</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -5486,7 +5486,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Dell Latitude 7440 Laptop (4 units)</t>
+          <t>Dell Latitude 7440 Laptop (Inventory)</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -5527,7 +5527,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Dell Precision 3660 Workstation (3 units)</t>
+          <t>Dell Precision 3660 Workstation (Inventory)</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -9646,7 +9646,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10823,6 +10823,1136 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>PRD-021</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Dell Latitude 5540 Laptop (Inventory)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>EXP-DELL-LAT5540</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Purchase of Dell Latitude 5540 laptops for inventory</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>CAT-PUR-001</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Inventory Purchases</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>SUP-001</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Dell Technologies</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>5</v>
+      </c>
+      <c r="L22" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>PRD-022</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Dell Latitude 7440 Laptop (Inventory)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>EXP-DELL-LAT7440</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Purchase of Dell Latitude 7440 laptops for inventory</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>CAT-PUR-001</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Inventory Purchases</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>SUP-001</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Dell Technologies</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>5</v>
+      </c>
+      <c r="L23" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>PRD-023</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Dell OptiPlex 7010 Desktop (Inventory)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>EXP-DELL-OPT7010</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Purchase of Dell OptiPlex desktops for inventory</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>CAT-PUR-001</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Inventory Purchases</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>SUP-001</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Dell Technologies</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>5</v>
+      </c>
+      <c r="L24" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>PRD-024</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Dell Precision 3660 Workstation (Inventory)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>EXP-DELL-PREC3660</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Purchase of Dell Precision workstations for inventory</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>CAT-PUR-001</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Inventory Purchases</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>SUP-001</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Dell Technologies</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>3</v>
+      </c>
+      <c r="L25" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>PRD-025</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Dell UltraSharp U2722D Monitor (Inventory)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>EXP-DELL-U2722D</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Purchase of Dell UltraSharp monitors for inventory</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>CAT-PUR-001</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Inventory Purchases</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>SUP-001</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Dell Technologies</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>5</v>
+      </c>
+      <c r="L26" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>PRD-026</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Dell P2422H Monitor (Inventory)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>EXP-DELL-P2422H</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Purchase of Dell P2422H monitors for inventory</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>CAT-PUR-001</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Inventory Purchases</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>SUP-001</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Dell Technologies</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>5</v>
+      </c>
+      <c r="L27" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>PRD-027</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Lenovo ThinkPad T14 (Inventory)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>EXP-LEN-T14</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Purchase of Lenovo ThinkPad laptops for inventory</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>CAT-PUR-001</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Inventory Purchases</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>SUP-007</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>5</v>
+      </c>
+      <c r="L28" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>PRD-028</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Cisco Meraki MX68 Firewall (Inventory)</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>EXP-CISCO-MX68</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Purchase of Cisco Meraki firewalls for inventory</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>CAT-PUR-001</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Inventory Purchases</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>SUP-004</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Cisco Systems</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>2</v>
+      </c>
+      <c r="L29" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>PRD-029</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Cisco Catalyst 1000-24T Switch (Inventory)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>EXP-CISCO-CAT1000</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Purchase of Cisco switches for inventory</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>CAT-PUR-001</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Inventory Purchases</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>SUP-004</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Cisco Systems</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>2</v>
+      </c>
+      <c r="L30" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>PRD-030</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Ubiquiti UniFi Access Point (Inventory)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>EXP-UBNT-UAP</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Purchase of Ubiquiti access points for inventory</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>CAT-PUR-001</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Inventory Purchases</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>SUP-002</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Ingram Micro</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>5</v>
+      </c>
+      <c r="L31" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>PRD-031</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Office Supplies - Q1</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>EXP-OFF-Q1</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Q1 office supplies purchase</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>CAT-PUR-002</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Office Supplies</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>SUP-002</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Ingram Micro</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>PRD-032</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Office Supplies - Q2</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>EXP-OFF-Q2</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Q2 office supplies purchase</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>CAT-PUR-002</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Office Supplies</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>SUP-002</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Ingram Micro</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>PRD-033</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Office Supplies - Q3</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>EXP-OFF-Q3</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Q3 office supplies purchase</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>CAT-PUR-002</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Office Supplies</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>SUP-002</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Ingram Micro</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>PRD-034</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Office Supplies - Q4</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>EXP-OFF-Q4</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Q4 office supplies purchase</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>CAT-PUR-002</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Office Supplies</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>SUP-002</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Ingram Micro</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>PRD-035</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Logitech Peripherals Bundle</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>EXP-LOG-BUNDLE</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Logitech keyboard, mouse, and webcam bundle</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>CAT-PUR-001</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Inventory Purchases</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>SUP-002</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Ingram Micro</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>5</v>
+      </c>
+      <c r="L36" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>PRD-036</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Adobe Creative Cloud (8 licenses)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Service</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>EXP-ADOBE-CC8</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Adobe Creative Cloud subscription (8 licenses)</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>CAT-PUR-003</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Software Subscriptions</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>SUP-005</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>CDW Corporation</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>PRD-037</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Microsoft 365 Business (40 licenses)</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Service</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>EXP-MS365-40</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Microsoft 365 Business subscription (40 licenses)</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>CAT-PUR-003</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Software Subscriptions</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>SUP-003</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Tech Data Corporation</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>PRD-038</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Professional Development Training</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Service</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>EXP-TRAIN</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Employee professional development and training</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>CAT-PUR-004</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Professional Services</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>PRD-039</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Marketing - Fall Campaign</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Service</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>EXP-MKT-FALL</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Fall marketing campaign expenses</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>CAT-PUR-005</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Marketing</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>PRD-040</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Marketing - Spring Campaign</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Service</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>EXP-MKT-SPRING</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Spring marketing campaign expenses</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>CAT-PUR-005</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Marketing</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
         <v>0</v>
       </c>
     </row>

--- a/ArgoBooks/Resources/SampleCompanyData.xlsx
+++ b/ArgoBooks/Resources/SampleCompanyData.xlsx
@@ -8745,7 +8745,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8823,35 +8823,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Customer</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>CUS-009</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>SUP-006</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>Cisco Meraki MX68 Firewall</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>46039.89542372725</v>
+        <v>45995.90923776707</v>
       </c>
       <c r="H2" t="n">
-        <v>276.53</v>
+        <v>411.1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Not as described</t>
+          <t>Defective</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -8869,31 +8869,31 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Customer</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>CUS-004</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>SUP-002</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Cisco Catalyst 1000-24T Switch</t>
+          <t>Microsoft 365 Business Premium</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>46044.89542372725</v>
+        <v>46009.90923776707</v>
       </c>
       <c r="H3" t="n">
-        <v>245.73</v>
+        <v>446.24</v>
       </c>
       <c r="I3" t="n">
-        <v>24.57</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -8915,35 +8915,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Customer</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>CUS-007</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SUP-007</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Cisco Meraki MX68 Firewall</t>
+          <t>Cisco Catalyst 1000-24T Switch</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>3</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>46032.89542372725</v>
+        <v>46022.90923776707</v>
       </c>
       <c r="H4" t="n">
-        <v>61.21</v>
+        <v>170.61</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Damaged in shipping</t>
+          <t>Changed mind</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -8966,30 +8966,30 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CUS-004</t>
+          <t>CUS-007</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Adobe Creative Cloud</t>
+          <t>Dell OptiPlex 7010 Desktop</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>46000.89542372725</v>
+        <v>45999.90923776707</v>
       </c>
       <c r="H5" t="n">
-        <v>172.17</v>
+        <v>207.8</v>
       </c>
       <c r="I5" t="n">
-        <v>17.22</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Defective</t>
+          <t>Changed mind</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -9012,30 +9012,30 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CUS-005</t>
+          <t>CUS-006</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Server Setup &amp; Configuration</t>
+          <t>Ubiquiti UniFi Access Point</t>
         </is>
       </c>
       <c r="F6" t="n">
         <v>2</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>46031.89542372725</v>
+        <v>46016.90923776707</v>
       </c>
       <c r="H6" t="n">
-        <v>112.95</v>
+        <v>248.64</v>
       </c>
       <c r="I6" t="n">
-        <v>11.3</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Wrong item</t>
+          <t>Changed mind</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -9044,6 +9044,98 @@
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>RET-006</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Customer</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CUS-007</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Monthly IT Support Contract</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>46048.90923776707</v>
+      </c>
+      <c r="H7" t="n">
+        <v>272.62</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Changed mind</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>RET-007</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Customer</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CUS-008</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Monthly IT Support Contract</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>46028.90923776707</v>
+      </c>
+      <c r="H8" t="n">
+        <v>98.38</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Not as described</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9658,7 +9750,7 @@
         </is>
       </c>
       <c r="E2" s="2" t="n">
-        <v>46005.89542372725</v>
+        <v>46005.89542372686</v>
       </c>
       <c r="F2" t="n">
         <v>411.58</v>
@@ -9668,7 +9760,6 @@
           <t>No</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -9690,7 +9781,7 @@
         </is>
       </c>
       <c r="E3" s="2" t="n">
-        <v>46047.89542372725</v>
+        <v>46047.89542372686</v>
       </c>
       <c r="F3" t="n">
         <v>276.89</v>
@@ -9700,7 +9791,6 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -9722,7 +9812,7 @@
         </is>
       </c>
       <c r="E4" s="2" t="n">
-        <v>46045.89542372725</v>
+        <v>46045.89542372686</v>
       </c>
       <c r="F4" t="n">
         <v>376.86</v>
@@ -9732,7 +9822,6 @@
           <t>No</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -9754,7 +9843,7 @@
         </is>
       </c>
       <c r="E5" s="2" t="n">
-        <v>46037.89542372725</v>
+        <v>46037.89542372686</v>
       </c>
       <c r="F5" t="n">
         <v>425.15</v>
@@ -9764,7 +9853,6 @@
           <t>No</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ArgoBooks/Resources/SampleCompanyData.xlsx
+++ b/ArgoBooks/Resources/SampleCompanyData.xlsx
@@ -571,7 +571,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -636,7 +636,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -826,7 +826,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>France</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>New Zealand</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1211,7 +1211,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -8826,7 +8826,6 @@
           <t>Expense</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
           <t>SUP-006</t>
@@ -8841,7 +8840,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>45995.90923776707</v>
+        <v>45995.9092377662</v>
       </c>
       <c r="H2" t="n">
         <v>411.1</v>
@@ -8859,7 +8858,6 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -8872,7 +8870,6 @@
           <t>Expense</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
           <t>SUP-002</t>
@@ -8887,7 +8884,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>46009.90923776707</v>
+        <v>46009.9092377662</v>
       </c>
       <c r="H3" t="n">
         <v>446.24</v>
@@ -8905,7 +8902,6 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -8918,7 +8914,6 @@
           <t>Expense</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
           <t>SUP-007</t>
@@ -8933,7 +8928,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>46022.90923776707</v>
+        <v>46022.9092377662</v>
       </c>
       <c r="H4" t="n">
         <v>170.61</v>
@@ -8951,7 +8946,6 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -8969,7 +8963,6 @@
           <t>CUS-007</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>Dell OptiPlex 7010 Desktop</t>
@@ -8979,7 +8972,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>45999.90923776707</v>
+        <v>45999.9092377662</v>
       </c>
       <c r="H5" t="n">
         <v>207.8</v>
@@ -8997,7 +8990,6 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -9015,7 +9007,6 @@
           <t>CUS-006</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>Ubiquiti UniFi Access Point</t>
@@ -9025,7 +9016,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>46016.90923776707</v>
+        <v>46016.9092377662</v>
       </c>
       <c r="H6" t="n">
         <v>248.64</v>
@@ -9043,7 +9034,6 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -9061,7 +9051,6 @@
           <t>CUS-007</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>Monthly IT Support Contract</t>
@@ -9071,7 +9060,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>46048.90923776707</v>
+        <v>46048.9092377662</v>
       </c>
       <c r="H7" t="n">
         <v>272.62</v>
@@ -9089,7 +9078,6 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -9107,7 +9095,6 @@
           <t>CUS-008</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>Monthly IT Support Contract</t>
@@ -9117,7 +9104,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>46028.90923776707</v>
+        <v>46028.9092377662</v>
       </c>
       <c r="H8" t="n">
         <v>98.38</v>
@@ -9135,7 +9122,6 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9261,7 +9247,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -9318,7 +9304,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -9375,7 +9361,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -9432,7 +9418,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -9489,7 +9475,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -9546,7 +9532,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>France</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -9603,7 +9589,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -9660,7 +9646,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">

--- a/ArgoBooks/Resources/SampleCompanyData.xlsx
+++ b/ArgoBooks/Resources/SampleCompanyData.xlsx
@@ -571,7 +571,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -636,7 +636,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -9247,7 +9247,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -9418,7 +9418,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -9475,7 +9475,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -9532,7 +9532,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -9589,7 +9589,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">

--- a/ArgoBooks/Resources/SampleCompanyData.xlsx
+++ b/ArgoBooks/Resources/SampleCompanyData.xlsx
@@ -5069,7 +5069,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Dell Latitude 5540 Laptop (Inventory)</t>
+          <t>Dell Latitude 5540 Laptop</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Dell OptiPlex 7010 Desktop (Inventory)</t>
+          <t>Dell OptiPlex 7010 Desktop</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -5157,7 +5157,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Dell UltraSharp U2722D Monitor (Inventory)</t>
+          <t>Dell UltraSharp U2722D Monitor</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -5198,7 +5198,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Lenovo ThinkPad T14 (Inventory)</t>
+          <t>Lenovo ThinkPad T14</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -5242,7 +5242,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Cisco Meraki MX68 Firewall (Inventory)</t>
+          <t>Cisco Meraki MX68 Firewall</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -5286,7 +5286,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Dell P2422H Monitor (Inventory)</t>
+          <t>Dell P2422H Monitor</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -5330,7 +5330,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Dell Precision 3660 Workstation (Inventory)</t>
+          <t>Dell Precision 3660 Workstation</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -5371,7 +5371,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Cisco Catalyst 1000-24T Switch (Inventory)</t>
+          <t>Cisco Catalyst 1000-24T Switch</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -5412,7 +5412,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Dell Latitude 7440 Laptop (Inventory)</t>
+          <t>Dell Latitude 7440 Laptop</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Dell Latitude 5540 Laptop (Inventory)</t>
+          <t>Dell Latitude 5540 Laptop</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Dell OptiPlex 7010 Desktop (Inventory)</t>
+          <t>Dell OptiPlex 7010 Desktop</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -5582,7 +5582,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Ubiquiti UniFi Access Point (Inventory)</t>
+          <t>Ubiquiti UniFi Access Point</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -5623,7 +5623,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Dell Latitude 5540 Laptop (Inventory)</t>
+          <t>Dell Latitude 5540 Laptop</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -5664,7 +5664,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Dell Latitude 7440 Laptop (Inventory)</t>
+          <t>Dell Latitude 7440 Laptop</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -5708,7 +5708,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Dell Precision 3660 Workstation (Inventory)</t>
+          <t>Dell Precision 3660 Workstation</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -8745,7 +8745,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8761,55 +8761,60 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Original Transaction ID</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Return Type</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Customer ID</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Supplier ID</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Product</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Quantity</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Return Date</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Refund Amount</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Restocking Fee</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>Reason</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
@@ -8823,37 +8828,42 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>PUR-2025-005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Expense</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>SUP-006</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>SUP-004</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>Cisco Meraki MX68 Firewall</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>45995.9092377662</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>46025.88398792824</v>
+      </c>
+      <c r="I2" t="n">
         <v>411.1</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>Defective</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
@@ -8867,37 +8877,42 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>PUR-2025-008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Expense</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>SUP-002</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Microsoft 365 Business Premium</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>SUP-004</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Cisco Catalyst 1000-24T Switch</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="2" t="n">
-        <v>46009.9092377662</v>
-      </c>
-      <c r="H3" t="n">
-        <v>446.24</v>
+      <c r="H3" s="2" t="n">
+        <v>46035.88398792824</v>
       </c>
       <c r="I3" t="n">
+        <v>170.61</v>
+      </c>
+      <c r="J3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>Not as described</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
@@ -8911,37 +8926,42 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>PUR-2025-010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>Expense</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>SUP-007</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Cisco Catalyst 1000-24T Switch</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>46022.9092377662</v>
-      </c>
-      <c r="H4" t="n">
-        <v>170.61</v>
+          <t>SUP-002</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Logitech Peripherals Bundle</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>46045.88398792824</v>
       </c>
       <c r="I4" t="n">
+        <v>89.98999999999999</v>
+      </c>
+      <c r="J4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>Changed mind</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
@@ -8955,37 +8975,42 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>SAL-2025-013</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>Customer</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>CUS-007</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Dell OptiPlex 7010 Desktop</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CUS-006</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Lenovo ThinkPad T14</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="2" t="n">
-        <v>45999.9092377662</v>
-      </c>
-      <c r="H5" t="n">
-        <v>207.8</v>
+      <c r="H5" s="2" t="n">
+        <v>46030.88398792824</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Changed mind</t>
-        </is>
+        <v>1299</v>
+      </c>
+      <c r="J5" t="n">
+        <v>50</v>
       </c>
       <c r="K5" t="inlineStr">
+        <is>
+          <t>Defective</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
@@ -8999,125 +9024,42 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>SAL-2025-006</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Customer</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>CUS-006</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Ubiquiti UniFi Access Point</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>46016.9092377662</v>
-      </c>
-      <c r="H6" t="n">
-        <v>248.64</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CUS-004</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Dell OptiPlex 7010 Desktop</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>46040.88398792824</v>
       </c>
       <c r="I6" t="n">
+        <v>899</v>
+      </c>
+      <c r="J6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>Changed mind</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>RET-006</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Customer</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>CUS-007</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Monthly IT Support Contract</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>46048.9092377662</v>
-      </c>
-      <c r="H7" t="n">
-        <v>272.62</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Changed mind</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>RET-007</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Customer</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>CUS-008</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Monthly IT Support Contract</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>46028.9092377662</v>
-      </c>
-      <c r="H8" t="n">
-        <v>98.38</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Not as described</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
@@ -9666,7 +9608,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9682,35 +9624,40 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Inventory Item ID</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Product</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Quantity</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Reason</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Date Discovered</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Value Lost</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Insurance Claim</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
@@ -9724,26 +9671,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cisco Catalyst 1000-24T Switch</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="inlineStr">
+          <t>PUR-2025-001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Dell Latitude 5540 Laptop</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>Damaged</t>
         </is>
       </c>
-      <c r="E2" s="2" t="n">
-        <v>46005.89542372686</v>
-      </c>
-      <c r="F2" t="n">
-        <v>411.58</v>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="F2" s="2" t="n">
+        <v>46010.88398792824</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1199</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>No</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Screen cracked during transport</t>
         </is>
       </c>
     </row>
@@ -9755,26 +9712,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>PUR-2025-004</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Lenovo ThinkPad T14</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Expired</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>46047.89542372686</v>
-      </c>
-      <c r="F3" t="n">
-        <v>276.89</v>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Lost</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>46020.88398792824</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1299</v>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Yes</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Missing from inventory</t>
         </is>
       </c>
     </row>
@@ -9786,57 +9753,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dell Latitude 5540 Laptop</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>46045.89542372686</v>
-      </c>
-      <c r="F4" t="n">
-        <v>376.86</v>
-      </c>
-      <c r="G4" t="inlineStr">
+          <t>PUR-2025-003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Dell UltraSharp U2722D Monitor</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Damaged</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>46027.88398792824</v>
+      </c>
+      <c r="G4" t="n">
+        <v>449</v>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>LOST-004</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Cisco Meraki MX68 Firewall</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Damaged</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>46037.89542372686</v>
-      </c>
-      <c r="F5" t="n">
-        <v>425.15</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>No</t>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Water damage</t>
         </is>
       </c>
     </row>

--- a/ArgoBooks/Resources/SampleCompanyData.xlsx
+++ b/ArgoBooks/Resources/SampleCompanyData.xlsx
@@ -7415,7 +7415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7474,6 +7474,11 @@
           <t>Status</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Product ID</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -7512,6 +7517,11 @@
           <t>Active</t>
         </is>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>PRD-041</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -7550,6 +7560,11 @@
           <t>Active</t>
         </is>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>PRD-042</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -7588,6 +7603,11 @@
           <t>Active</t>
         </is>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>PRD-043</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7626,6 +7646,11 @@
           <t>Active</t>
         </is>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>PRD-044</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7662,6 +7687,11 @@
       <c r="J6" t="inlineStr">
         <is>
           <t>Active</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>PRD-045</t>
         </is>
       </c>
     </row>
@@ -9945,7 +9975,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10502,6 +10532,33 @@
       <c r="G16" t="inlineStr">
         <is>
           <t>📢</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CAT-RNT-001</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Rental Equipment</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Rental</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Equipment available for rental</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Product</t>
         </is>
       </c>
     </row>
@@ -10516,7 +10573,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
@@ -12826,6 +12883,246 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>PRD-041</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>HD Projector</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Rental</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>RNT-PRD-PROJ</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>HD projector for presentations and events</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>CAT-RNT-001</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Rental Equipment</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>PRD-042</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Conference Room AV Kit</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Rental</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>RNT-PRD-AV</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Complete AV kit for conference rooms</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>CAT-RNT-001</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Rental Equipment</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>PRD-043</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Laptop Rental Unit</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Rental</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>RNT-PRD-LAP</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Laptop available for short-term rental</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>CAT-RNT-001</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Rental Equipment</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>PRD-044</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Portable PA System</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Rental</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>RNT-PRD-PA</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Portable public address system for events</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>CAT-RNT-001</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Rental Equipment</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>PRD-045</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Display Monitor (Large)</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Rental</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>RNT-PRD-MON</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Large display monitor for events and trade shows</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>CAT-RNT-001</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Rental Equipment</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
         <v>0</v>
       </c>
     </row>

--- a/ArgoBooks/Resources/SampleCompanyData.xlsx
+++ b/ArgoBooks/Resources/SampleCompanyData.xlsx
@@ -1499,7 +1499,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J81"/>
+  <dimension ref="A1:J91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4975,6 +4975,437 @@
         </is>
       </c>
       <c r="I81" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>SAL-2025-081</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>CUS-002</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>ProBook 5500 Laptop</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>1299</v>
+      </c>
+      <c r="F82" t="n">
+        <v>107.17</v>
+      </c>
+      <c r="G82" t="n">
+        <v>1406.17</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>SO-10045</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+      <c r="J82" t="n">
+        <v>9.73</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>SAL-2025-082</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>CUS-005</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>ClearView 27" 4K Monitor</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>699</v>
+      </c>
+      <c r="F83" t="n">
+        <v>57.67</v>
+      </c>
+      <c r="G83" t="n">
+        <v>756.67</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>SO-10046</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+      <c r="J83" t="n">
+        <v>23.22</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>SAL-2025-083</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>CUS-003</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Monthly IT Support Contract</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>2500</v>
+      </c>
+      <c r="F84" t="n">
+        <v>206.25</v>
+      </c>
+      <c r="G84" t="n">
+        <v>2706.25</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>SO-10047</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+      <c r="J84" t="n">
+        <v>18.31</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>SAL-2025-084</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2026-01-05</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>CUS-008</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>CloudOffice Business Premium</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F85" t="n">
+        <v>148.5</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1948.5</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>SO-10048</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>SAL-2025-085</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2026-01-08</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>CUS-010</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Network Assessment</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>3500</v>
+      </c>
+      <c r="F86" t="n">
+        <v>288.75</v>
+      </c>
+      <c r="G86" t="n">
+        <v>3788.75</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>SO-10049</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+      <c r="J86" t="n">
+        <v>17.52</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>SAL-2025-086</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>CUS-007</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Server Setup &amp; Configuration</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>4200</v>
+      </c>
+      <c r="F87" t="n">
+        <v>346.5</v>
+      </c>
+      <c r="G87" t="n">
+        <v>4546.5</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>SO-10050</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+      <c r="J87" t="n">
+        <v>17.85</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>SAL-2025-087</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2026-01-14</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>CUS-013</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>WorkStation 7010 Desktop</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>1399</v>
+      </c>
+      <c r="F88" t="n">
+        <v>115.42</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1514.42</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>SO-10051</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+      <c r="J88" t="n">
+        <v>19.35</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>SAL-2025-088</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>CUS-001</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>ProBook 7400 Laptop</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>1899</v>
+      </c>
+      <c r="F89" t="n">
+        <v>156.67</v>
+      </c>
+      <c r="G89" t="n">
+        <v>2055.67</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>SO-10052</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>SAL-2025-089</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2026-01-19</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>CUS-004</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Data Migration Service</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>5500</v>
+      </c>
+      <c r="F90" t="n">
+        <v>453.75</v>
+      </c>
+      <c r="G90" t="n">
+        <v>5953.75</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>SO-10053</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+      <c r="J90" t="n">
+        <v>24.53</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>SAL-2025-090</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>CUS-011</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>DesignSuite Pro</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>599</v>
+      </c>
+      <c r="F91" t="n">
+        <v>49.42</v>
+      </c>
+      <c r="G91" t="n">
+        <v>648.42</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>SO-10054</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
         <is>
           <t>Paid</t>
         </is>
@@ -4991,7 +5422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6119,6 +6550,434 @@
         <is>
           <t>Credit Card</t>
         </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>PUR-2025-026</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>SUP-004</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Copy Paper (Case)</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>45</v>
+      </c>
+      <c r="F27" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="G27" t="n">
+        <v>48.71</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>PO-20026</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Credit Card</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>12.73</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>PUR-2025-027</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025-12-10</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>SUP-001</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>ProBook 5500 Laptop</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>8990</v>
+      </c>
+      <c r="F28" t="n">
+        <v>741.6799999999999</v>
+      </c>
+      <c r="G28" t="n">
+        <v>9731.68</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>PO-20027</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Bank Transfer</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>18.27</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>PUR-2025-028</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>SUP-004</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Premium Staplers</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>32</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="G29" t="n">
+        <v>34.64</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>PO-20028</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Credit Card</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
+        <v>22.75</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>PUR-2025-029</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>SUP-001</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>ClearView 27" 4K Monitor</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>3490</v>
+      </c>
+      <c r="F30" t="n">
+        <v>287.93</v>
+      </c>
+      <c r="G30" t="n">
+        <v>3777.93</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>PO-20029</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Bank Transfer</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
+        <v>16.14</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>PUR-2025-030</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>SUP-008</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Ergonomic Office Chair</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>565</v>
+      </c>
+      <c r="F31" t="n">
+        <v>46.61</v>
+      </c>
+      <c r="G31" t="n">
+        <v>611.61</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>PO-20030</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Credit Card</t>
+        </is>
+      </c>
+      <c r="J31" t="n">
+        <v>11.76</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>PUR-2025-031</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2026-01-03</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>SUP-002</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>CloudOffice Business (40 licenses)</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>3600</v>
+      </c>
+      <c r="F32" t="n">
+        <v>297</v>
+      </c>
+      <c r="G32" t="n">
+        <v>3897</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>PO-20031</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Bank Transfer</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>PUR-2025-032</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2026-01-08</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>SUP-005</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>PeripheralPro Bundle</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>1680</v>
+      </c>
+      <c r="F33" t="n">
+        <v>138.6</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1818.6</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>PO-20032</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Check</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>PUR-2025-033</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2026-01-12</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>SUP-007</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>AirLink WiFi Access Point</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>1140</v>
+      </c>
+      <c r="F34" t="n">
+        <v>94.05</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1234.05</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>PO-20033</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Credit Card</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>PUR-2025-034</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>SUP-001</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>NetSwitch 1000-24T</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>4245</v>
+      </c>
+      <c r="F35" t="n">
+        <v>350.21</v>
+      </c>
+      <c r="G35" t="n">
+        <v>4595.21</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>PO-20034</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Bank Transfer</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>PUR-2025-035</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>SUP-002</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>DesignSuite Pro (8 licenses)</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>2392</v>
+      </c>
+      <c r="F36" t="n">
+        <v>197.34</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2589.34</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>PO-20035</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Bank Transfer</t>
+        </is>
+      </c>
+      <c r="J36" t="n">
+        <v>16.3</v>
       </c>
     </row>
   </sheetData>
